--- a/biology/Microbiologie/Atribacterales/Atribacterales.xlsx
+++ b/biology/Microbiologie/Atribacterales/Atribacterales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Atribacterales forment un ordre de bactéries.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type du genre type Atribacter de cet ordre Atribacterales est isolée au large du Japon à partir d'un mélange de sédiments et d'eau prélevés de sédiments profonds d'un aquifère salin comprenant du gaz naturel[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type du genre type Atribacter de cet ordre Atribacterales est isolée au large du Japon à partir d'un mélange de sédiments et d'eau prélevés de sédiments profonds d'un aquifère salin comprenant du gaz naturel.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries du genre Atribacter (genre type de cet ordre) sont gram négatives et anaérobies stricts. Elles ne formant pas de spores, sont en forme de bacilles et parfois aussi plus ovoïde avec des extrémités plus pointues[2]. Leurs dimensions caractéristiques sont de 0,6 à 0,8 μm de large et de 1,3 à 1,8 μm de long[3]. Contrairement à la plupart des bactéries gram négatives, les Atribacter possèdent trois bicouches lipidiques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries du genre Atribacter (genre type de cet ordre) sont gram négatives et anaérobies stricts. Elles ne formant pas de spores, sont en forme de bacilles et parfois aussi plus ovoïde avec des extrémités plus pointues. Leurs dimensions caractéristiques sont de 0,6 à 0,8 μm de large et de 1,3 à 1,8 μm de long. Contrairement à la plupart des bactéries gram négatives, les Atribacter possèdent trois bicouches lipidiques.
 </t>
         </is>
       </c>
@@ -573,14 +589,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Atribacterales Katayama et al. 2021[4].
-Le genre type est : Atribacter Katayama et al. 2021[4].
-Étymologie
-L'étymologie de cet ordre est la suivante : A.tri.bac.te.ra’les. N.L. masc. n. Atribacter, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe définissant un ordre; N.L. fem. pl. n. Atribacterales, l'ordre du genre Atribacter[4].
-Liste des familles
-Selon LPSN  (5 août 2023)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Atribacterales Katayama et al. 2021.
+Le genre type est : Atribacter Katayama et al. 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atribacterales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atribacterales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : A.tri.bac.te.ra’les. N.L. masc. n. Atribacter, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe définissant un ordre; N.L. fem. pl. n. Atribacterales, l'ordre du genre Atribacter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atribacterales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atribacterales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (5 août 2023) :
 Atribacteraceae Katayama et al. 2021</t>
         </is>
       </c>
